--- a/data/microservice-recruit/pf-resume_structure.xlsx
+++ b/data/microservice-recruit/pf-resume_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5271" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5274" uniqueCount="411">
   <si>
     <t>Class Name</t>
   </si>
@@ -894,22 +894,25 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>SUCCESS</t>
+  </si>
+  <si>
+    <t>msg</t>
+  </si>
+  <si>
     <t>$VALUES</t>
   </si>
   <si>
+    <t>RESUME_NOT_EXIST</t>
+  </si>
+  <si>
     <t>UNKNOW_ERROR</t>
   </si>
   <si>
-    <t>SUCCESS</t>
-  </si>
-  <si>
-    <t>msg</t>
-  </si>
-  <si>
-    <t>RESUME_NOT_EXIST</t>
-  </si>
-  <si>
-    <t>code</t>
+    <t>log</t>
   </si>
   <si>
     <t>charset</t>
@@ -921,24 +924,21 @@
     <t>prefix</t>
   </si>
   <si>
-    <t>log</t>
-  </si>
-  <si>
     <t>title</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>time</t>
   </si>
   <si>
+    <t>userId</t>
+  </si>
+  <si>
     <t>rate</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>userId</t>
-  </si>
-  <si>
     <t>JOINER</t>
   </si>
   <si>
@@ -951,12 +951,12 @@
     <t>id</t>
   </si>
   <si>
+    <t>seqId</t>
+  </si>
+  <si>
     <t>collName</t>
   </si>
   <si>
-    <t>seqId</t>
-  </si>
-  <si>
     <t>data</t>
   </si>
   <si>
@@ -993,88 +993,88 @@
     <t>getList</t>
   </si>
   <si>
+    <t>resumeId</t>
+  </si>
+  <si>
     <t>level</t>
   </si>
   <si>
-    <t>resumeId</t>
-  </si>
-  <si>
     <t>serialVersionUID</t>
   </si>
   <si>
     <t>$assertionsDisabled</t>
   </si>
   <si>
+    <t>redis</t>
+  </si>
+  <si>
     <t>skillRepo</t>
   </si>
   <si>
+    <t>recruitClient</t>
+  </si>
+  <si>
     <t>userClient</t>
   </si>
   <si>
-    <t>redis</t>
-  </si>
-  <si>
-    <t>recruitClient</t>
-  </si>
-  <si>
     <t>skillList</t>
   </si>
   <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>skills</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>awards</t>
+  </si>
+  <si>
+    <t>introduce</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>avatar</t>
+  </si>
+  <si>
     <t>address</t>
   </si>
   <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>avatar</t>
-  </si>
-  <si>
-    <t>skills</t>
-  </si>
-  <si>
-    <t>introduce</t>
-  </si>
-  <si>
     <t>endTime</t>
   </si>
   <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>awards</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>school</t>
+    <t>createTime</t>
   </si>
   <si>
     <t>updateTime</t>
   </si>
   <si>
-    <t>createTime</t>
-  </si>
-  <si>
     <t>recruit</t>
   </si>
   <si>
+    <t>intentionCompany</t>
+  </si>
+  <si>
+    <t>intentionJob</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
     <t>nickname</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>intentionJob</t>
-  </si>
-  <si>
-    <t>intentionCompany</t>
   </si>
   <si>
     <t>education</t>
@@ -10743,7 +10743,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C266"/>
+  <dimension ref="A1:C267"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11964,10 +11964,10 @@
         <v>148</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C111" t="s" s="0">
-        <v>369</v>
+        <v>384</v>
       </c>
     </row>
     <row r="112">
@@ -11975,18 +11975,18 @@
         <v>148</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C112" t="s" s="0">
-        <v>384</v>
+        <v>369</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="0">
-        <v>281</v>
+        <v>148</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>282</v>
+        <v>151</v>
       </c>
       <c r="C113" t="s" s="0">
         <v>384</v>
@@ -11997,10 +11997,10 @@
         <v>281</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C114" t="s" s="0">
-        <v>377</v>
+        <v>384</v>
       </c>
     </row>
     <row r="115">
@@ -12008,7 +12008,7 @@
         <v>281</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C115" t="s" s="0">
         <v>377</v>
@@ -12019,10 +12019,10 @@
         <v>281</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>206</v>
+        <v>284</v>
       </c>
       <c r="C116" t="s" s="0">
-        <v>394</v>
+        <v>377</v>
       </c>
     </row>
     <row r="117">
@@ -12030,10 +12030,10 @@
         <v>281</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>286</v>
+        <v>206</v>
       </c>
       <c r="C117" t="s" s="0">
-        <v>377</v>
+        <v>394</v>
       </c>
     </row>
     <row r="118">
@@ -12041,7 +12041,7 @@
         <v>281</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C118" t="s" s="0">
         <v>377</v>
@@ -12049,21 +12049,21 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="0">
-        <v>153</v>
+        <v>281</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>154</v>
+        <v>283</v>
       </c>
       <c r="C119" t="s" s="0">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="0">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C120" t="s" s="0">
         <v>384</v>
@@ -12074,10 +12074,10 @@
         <v>155</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C121" t="s" s="0">
-        <v>377</v>
+        <v>384</v>
       </c>
     </row>
     <row r="122">
@@ -12085,7 +12085,7 @@
         <v>155</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C122" t="s" s="0">
         <v>377</v>
@@ -12096,7 +12096,7 @@
         <v>155</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C123" t="s" s="0">
         <v>377</v>
@@ -12107,7 +12107,7 @@
         <v>155</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C124" t="s" s="0">
         <v>377</v>
@@ -12115,10 +12115,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="0">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>67</v>
+        <v>157</v>
       </c>
       <c r="C125" t="s" s="0">
         <v>377</v>
@@ -12129,7 +12129,7 @@
         <v>161</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>164</v>
+        <v>67</v>
       </c>
       <c r="C126" t="s" s="0">
         <v>377</v>
@@ -12140,7 +12140,7 @@
         <v>161</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>59</v>
+        <v>164</v>
       </c>
       <c r="C127" t="s" s="0">
         <v>377</v>
@@ -12151,7 +12151,7 @@
         <v>161</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>162</v>
+        <v>59</v>
       </c>
       <c r="C128" t="s" s="0">
         <v>377</v>
@@ -12162,10 +12162,10 @@
         <v>161</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>7</v>
+        <v>162</v>
       </c>
       <c r="C129" t="s" s="0">
-        <v>398</v>
+        <v>377</v>
       </c>
     </row>
     <row r="130">
@@ -12173,10 +12173,10 @@
         <v>161</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="C130" t="s" s="0">
-        <v>377</v>
+        <v>398</v>
       </c>
     </row>
     <row r="131">
@@ -12184,10 +12184,10 @@
         <v>161</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="C131" t="s" s="0">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="132">
@@ -12195,10 +12195,10 @@
         <v>161</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C132" t="s" s="0">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="133">
@@ -12206,10 +12206,10 @@
         <v>161</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>163</v>
+        <v>16</v>
       </c>
       <c r="C133" t="s" s="0">
-        <v>394</v>
+        <v>377</v>
       </c>
     </row>
     <row r="134">
@@ -12217,21 +12217,21 @@
         <v>161</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C134" t="s" s="0">
-        <v>358</v>
+        <v>394</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="0">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C135" t="s" s="0">
-        <v>377</v>
+        <v>358</v>
       </c>
     </row>
     <row r="136">
@@ -12239,10 +12239,10 @@
         <v>166</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C136" t="s" s="0">
-        <v>358</v>
+        <v>377</v>
       </c>
     </row>
     <row r="137">
@@ -12250,10 +12250,10 @@
         <v>166</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C137" t="s" s="0">
-        <v>377</v>
+        <v>358</v>
       </c>
     </row>
     <row r="138">
@@ -12261,7 +12261,7 @@
         <v>166</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C138" t="s" s="0">
         <v>377</v>
@@ -12272,10 +12272,10 @@
         <v>166</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="C139" t="s" s="0">
-        <v>403</v>
+        <v>377</v>
       </c>
     </row>
     <row r="140">
@@ -12283,10 +12283,10 @@
         <v>166</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="C140" t="s" s="0">
-        <v>377</v>
+        <v>403</v>
       </c>
     </row>
     <row r="141">
@@ -12294,10 +12294,10 @@
         <v>166</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="C141" t="s" s="0">
-        <v>397</v>
+        <v>377</v>
       </c>
     </row>
     <row r="142">
@@ -12305,21 +12305,21 @@
         <v>166</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C142" t="s" s="0">
-        <v>377</v>
+        <v>397</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="0">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>173</v>
+        <v>16</v>
       </c>
       <c r="C143" t="s" s="0">
-        <v>358</v>
+        <v>377</v>
       </c>
     </row>
     <row r="144">
@@ -12327,10 +12327,10 @@
         <v>171</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>67</v>
+        <v>173</v>
       </c>
       <c r="C144" t="s" s="0">
-        <v>377</v>
+        <v>358</v>
       </c>
     </row>
     <row r="145">
@@ -12338,7 +12338,7 @@
         <v>171</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>181</v>
+        <v>67</v>
       </c>
       <c r="C145" t="s" s="0">
         <v>377</v>
@@ -12349,7 +12349,7 @@
         <v>171</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C146" t="s" s="0">
         <v>377</v>
@@ -12360,7 +12360,7 @@
         <v>171</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>59</v>
+        <v>175</v>
       </c>
       <c r="C147" t="s" s="0">
         <v>377</v>
@@ -12371,7 +12371,7 @@
         <v>171</v>
       </c>
       <c r="B148" t="s" s="0">
-        <v>177</v>
+        <v>59</v>
       </c>
       <c r="C148" t="s" s="0">
         <v>377</v>
@@ -12382,7 +12382,7 @@
         <v>171</v>
       </c>
       <c r="B149" t="s" s="0">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C149" t="s" s="0">
         <v>377</v>
@@ -12393,7 +12393,7 @@
         <v>171</v>
       </c>
       <c r="B150" t="s" s="0">
-        <v>16</v>
+        <v>176</v>
       </c>
       <c r="C150" t="s" s="0">
         <v>377</v>
@@ -12404,10 +12404,10 @@
         <v>171</v>
       </c>
       <c r="B151" t="s" s="0">
-        <v>172</v>
+        <v>16</v>
       </c>
       <c r="C151" t="s" s="0">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="152">
@@ -12415,10 +12415,10 @@
         <v>171</v>
       </c>
       <c r="B152" t="s" s="0">
-        <v>7</v>
+        <v>172</v>
       </c>
       <c r="C152" t="s" s="0">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="153">
@@ -12426,10 +12426,10 @@
         <v>171</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="C153" t="s" s="0">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="154">
@@ -12437,21 +12437,21 @@
         <v>171</v>
       </c>
       <c r="B154" t="s" s="0">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="C154" t="s" s="0">
-        <v>395</v>
+        <v>377</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="0">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="B155" t="s" s="0">
-        <v>188</v>
+        <v>21</v>
       </c>
       <c r="C155" t="s" s="0">
-        <v>373</v>
+        <v>395</v>
       </c>
     </row>
     <row r="156">
@@ -12459,7 +12459,7 @@
         <v>183</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C156" t="s" s="0">
         <v>373</v>
@@ -12470,18 +12470,18 @@
         <v>183</v>
       </c>
       <c r="B157" t="s" s="0">
-        <v>32</v>
+        <v>195</v>
       </c>
       <c r="C157" t="s" s="0">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="0">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>211</v>
+        <v>32</v>
       </c>
       <c r="C158" t="s" s="0">
         <v>377</v>
@@ -12492,10 +12492,10 @@
         <v>202</v>
       </c>
       <c r="B159" t="s" s="0">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C159" t="s" s="0">
-        <v>369</v>
+        <v>377</v>
       </c>
     </row>
     <row r="160">
@@ -12503,10 +12503,10 @@
         <v>202</v>
       </c>
       <c r="B160" t="s" s="0">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C160" t="s" s="0">
-        <v>395</v>
+        <v>369</v>
       </c>
     </row>
     <row r="161">
@@ -12514,10 +12514,10 @@
         <v>202</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C161" t="s" s="0">
-        <v>377</v>
+        <v>395</v>
       </c>
     </row>
     <row r="162">
@@ -12525,10 +12525,10 @@
         <v>202</v>
       </c>
       <c r="B162" t="s" s="0">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C162" t="s" s="0">
-        <v>397</v>
+        <v>377</v>
       </c>
     </row>
     <row r="163">
@@ -12536,10 +12536,10 @@
         <v>202</v>
       </c>
       <c r="B163" t="s" s="0">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C163" t="s" s="0">
-        <v>377</v>
+        <v>397</v>
       </c>
     </row>
     <row r="164">
@@ -12547,10 +12547,10 @@
         <v>202</v>
       </c>
       <c r="B164" t="s" s="0">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C164" t="s" s="0">
-        <v>394</v>
+        <v>377</v>
       </c>
     </row>
     <row r="165">
@@ -12558,10 +12558,10 @@
         <v>202</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C165" t="s" s="0">
-        <v>404</v>
+        <v>394</v>
       </c>
     </row>
     <row r="166">
@@ -12569,10 +12569,10 @@
         <v>202</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C166" t="s" s="0">
-        <v>384</v>
+        <v>404</v>
       </c>
     </row>
     <row r="167">
@@ -12580,7 +12580,7 @@
         <v>202</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C167" t="s" s="0">
         <v>384</v>
@@ -12591,7 +12591,7 @@
         <v>202</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="C168" t="s" s="0">
         <v>384</v>
@@ -12599,13 +12599,13 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="0">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>81</v>
+        <v>207</v>
       </c>
       <c r="C169" t="s" s="0">
-        <v>377</v>
+        <v>384</v>
       </c>
     </row>
     <row r="170">
@@ -12613,7 +12613,7 @@
         <v>217</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>222</v>
+        <v>81</v>
       </c>
       <c r="C170" t="s" s="0">
         <v>377</v>
@@ -12624,7 +12624,7 @@
         <v>217</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C171" t="s" s="0">
         <v>377</v>
@@ -12635,7 +12635,7 @@
         <v>217</v>
       </c>
       <c r="B172" t="s" s="0">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C172" t="s" s="0">
         <v>377</v>
@@ -12646,10 +12646,10 @@
         <v>217</v>
       </c>
       <c r="B173" t="s" s="0">
-        <v>7</v>
+        <v>218</v>
       </c>
       <c r="C173" t="s" s="0">
-        <v>398</v>
+        <v>377</v>
       </c>
     </row>
     <row r="174">
@@ -12657,10 +12657,10 @@
         <v>217</v>
       </c>
       <c r="B174" t="s" s="0">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="C174" t="s" s="0">
-        <v>377</v>
+        <v>398</v>
       </c>
     </row>
     <row r="175">
@@ -12668,10 +12668,10 @@
         <v>217</v>
       </c>
       <c r="B175" t="s" s="0">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="C175" t="s" s="0">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="176">
@@ -12679,10 +12679,10 @@
         <v>217</v>
       </c>
       <c r="B176" t="s" s="0">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C176" t="s" s="0">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="177">
@@ -12690,10 +12690,10 @@
         <v>217</v>
       </c>
       <c r="B177" t="s" s="0">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="C177" t="s" s="0">
-        <v>358</v>
+        <v>377</v>
       </c>
     </row>
     <row r="178">
@@ -12701,21 +12701,21 @@
         <v>217</v>
       </c>
       <c r="B178" t="s" s="0">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C178" t="s" s="0">
-        <v>394</v>
+        <v>358</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s" s="0">
-        <v>55</v>
+        <v>217</v>
       </c>
       <c r="B179" t="s" s="0">
-        <v>66</v>
+        <v>220</v>
       </c>
       <c r="C179" t="s" s="0">
-        <v>377</v>
+        <v>394</v>
       </c>
     </row>
     <row r="180">
@@ -12723,7 +12723,7 @@
         <v>55</v>
       </c>
       <c r="B180" t="s" s="0">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C180" t="s" s="0">
         <v>377</v>
@@ -12734,7 +12734,7 @@
         <v>55</v>
       </c>
       <c r="B181" t="s" s="0">
-        <v>230</v>
+        <v>67</v>
       </c>
       <c r="C181" t="s" s="0">
         <v>377</v>
@@ -12745,7 +12745,7 @@
         <v>55</v>
       </c>
       <c r="B182" t="s" s="0">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="C182" t="s" s="0">
         <v>377</v>
@@ -12756,7 +12756,7 @@
         <v>55</v>
       </c>
       <c r="B183" t="s" s="0">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C183" t="s" s="0">
         <v>377</v>
@@ -12767,7 +12767,7 @@
         <v>55</v>
       </c>
       <c r="B184" t="s" s="0">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C184" t="s" s="0">
         <v>377</v>
@@ -12778,7 +12778,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s" s="0">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C185" t="s" s="0">
         <v>377</v>
@@ -12789,7 +12789,7 @@
         <v>55</v>
       </c>
       <c r="B186" t="s" s="0">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C186" t="s" s="0">
         <v>377</v>
@@ -12800,7 +12800,7 @@
         <v>55</v>
       </c>
       <c r="B187" t="s" s="0">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C187" t="s" s="0">
         <v>377</v>
@@ -12811,7 +12811,7 @@
         <v>55</v>
       </c>
       <c r="B188" t="s" s="0">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="C188" t="s" s="0">
         <v>377</v>
@@ -12822,7 +12822,7 @@
         <v>55</v>
       </c>
       <c r="B189" t="s" s="0">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="C189" t="s" s="0">
         <v>377</v>
@@ -12833,7 +12833,7 @@
         <v>55</v>
       </c>
       <c r="B190" t="s" s="0">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="C190" t="s" s="0">
         <v>377</v>
@@ -12844,7 +12844,7 @@
         <v>55</v>
       </c>
       <c r="B191" t="s" s="0">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C191" t="s" s="0">
         <v>377</v>
@@ -12855,7 +12855,7 @@
         <v>55</v>
       </c>
       <c r="B192" t="s" s="0">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="C192" t="s" s="0">
         <v>377</v>
@@ -12866,7 +12866,7 @@
         <v>55</v>
       </c>
       <c r="B193" t="s" s="0">
-        <v>63</v>
+        <v>241</v>
       </c>
       <c r="C193" t="s" s="0">
         <v>377</v>
@@ -12877,7 +12877,7 @@
         <v>55</v>
       </c>
       <c r="B194" t="s" s="0">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C194" t="s" s="0">
         <v>377</v>
@@ -12888,7 +12888,7 @@
         <v>55</v>
       </c>
       <c r="B195" t="s" s="0">
-        <v>236</v>
+        <v>59</v>
       </c>
       <c r="C195" t="s" s="0">
         <v>377</v>
@@ -12899,7 +12899,7 @@
         <v>55</v>
       </c>
       <c r="B196" t="s" s="0">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C196" t="s" s="0">
         <v>377</v>
@@ -12910,7 +12910,7 @@
         <v>55</v>
       </c>
       <c r="B197" t="s" s="0">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C197" t="s" s="0">
         <v>377</v>
@@ -12921,7 +12921,7 @@
         <v>55</v>
       </c>
       <c r="B198" t="s" s="0">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="C198" t="s" s="0">
         <v>377</v>
@@ -12932,7 +12932,7 @@
         <v>55</v>
       </c>
       <c r="B199" t="s" s="0">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C199" t="s" s="0">
         <v>377</v>
@@ -12943,7 +12943,7 @@
         <v>55</v>
       </c>
       <c r="B200" t="s" s="0">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="C200" t="s" s="0">
         <v>377</v>
@@ -12954,7 +12954,7 @@
         <v>55</v>
       </c>
       <c r="B201" t="s" s="0">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C201" t="s" s="0">
         <v>377</v>
@@ -12965,7 +12965,7 @@
         <v>55</v>
       </c>
       <c r="B202" t="s" s="0">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C202" t="s" s="0">
         <v>377</v>
@@ -12976,7 +12976,7 @@
         <v>55</v>
       </c>
       <c r="B203" t="s" s="0">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C203" t="s" s="0">
         <v>377</v>
@@ -12987,7 +12987,7 @@
         <v>55</v>
       </c>
       <c r="B204" t="s" s="0">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C204" t="s" s="0">
         <v>377</v>
@@ -12998,7 +12998,7 @@
         <v>55</v>
       </c>
       <c r="B205" t="s" s="0">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="C205" t="s" s="0">
         <v>377</v>
@@ -13009,7 +13009,7 @@
         <v>55</v>
       </c>
       <c r="B206" t="s" s="0">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="C206" t="s" s="0">
         <v>377</v>
@@ -13020,7 +13020,7 @@
         <v>55</v>
       </c>
       <c r="B207" t="s" s="0">
-        <v>16</v>
+        <v>248</v>
       </c>
       <c r="C207" t="s" s="0">
         <v>377</v>
@@ -13031,10 +13031,10 @@
         <v>55</v>
       </c>
       <c r="B208" t="s" s="0">
-        <v>229</v>
+        <v>16</v>
       </c>
       <c r="C208" t="s" s="0">
-        <v>369</v>
+        <v>377</v>
       </c>
     </row>
     <row r="209">
@@ -13042,10 +13042,10 @@
         <v>55</v>
       </c>
       <c r="B209" t="s" s="0">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C209" t="s" s="0">
-        <v>358</v>
+        <v>369</v>
       </c>
     </row>
     <row r="210">
@@ -13053,10 +13053,10 @@
         <v>55</v>
       </c>
       <c r="B210" t="s" s="0">
-        <v>7</v>
+        <v>234</v>
       </c>
       <c r="C210" t="s" s="0">
-        <v>405</v>
+        <v>358</v>
       </c>
     </row>
     <row r="211">
@@ -13064,10 +13064,10 @@
         <v>55</v>
       </c>
       <c r="B211" t="s" s="0">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="C211" t="s" s="0">
-        <v>377</v>
+        <v>405</v>
       </c>
     </row>
     <row r="212">
@@ -13075,21 +13075,21 @@
         <v>55</v>
       </c>
       <c r="B212" t="s" s="0">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="C212" t="s" s="0">
-        <v>406</v>
+        <v>377</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s" s="0">
-        <v>249</v>
+        <v>55</v>
       </c>
       <c r="B213" t="s" s="0">
-        <v>250</v>
+        <v>21</v>
       </c>
       <c r="C213" t="s" s="0">
-        <v>384</v>
+        <v>406</v>
       </c>
     </row>
     <row r="214">
@@ -13097,21 +13097,21 @@
         <v>249</v>
       </c>
       <c r="B214" t="s" s="0">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C214" t="s" s="0">
-        <v>395</v>
+        <v>384</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s" s="0">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B215" t="s" s="0">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C215" t="s" s="0">
-        <v>384</v>
+        <v>395</v>
       </c>
     </row>
     <row r="216">
@@ -13119,10 +13119,10 @@
         <v>254</v>
       </c>
       <c r="B216" t="s" s="0">
-        <v>81</v>
+        <v>255</v>
       </c>
       <c r="C216" t="s" s="0">
-        <v>377</v>
+        <v>384</v>
       </c>
     </row>
     <row r="217">
@@ -13130,7 +13130,7 @@
         <v>254</v>
       </c>
       <c r="B217" t="s" s="0">
-        <v>174</v>
+        <v>81</v>
       </c>
       <c r="C217" t="s" s="0">
         <v>377</v>
@@ -13141,7 +13141,7 @@
         <v>254</v>
       </c>
       <c r="B218" t="s" s="0">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C218" t="s" s="0">
         <v>377</v>
@@ -13152,7 +13152,7 @@
         <v>254</v>
       </c>
       <c r="B219" t="s" s="0">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C219" t="s" s="0">
         <v>377</v>
@@ -13163,7 +13163,7 @@
         <v>254</v>
       </c>
       <c r="B220" t="s" s="0">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C220" t="s" s="0">
         <v>377</v>
@@ -13174,7 +13174,7 @@
         <v>254</v>
       </c>
       <c r="B221" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C221" t="s" s="0">
         <v>377</v>
@@ -13185,10 +13185,10 @@
         <v>254</v>
       </c>
       <c r="B222" t="s" s="0">
-        <v>7</v>
+        <v>180</v>
       </c>
       <c r="C222" t="s" s="0">
-        <v>407</v>
+        <v>377</v>
       </c>
     </row>
     <row r="223">
@@ -13196,10 +13196,10 @@
         <v>254</v>
       </c>
       <c r="B223" t="s" s="0">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="C223" t="s" s="0">
-        <v>377</v>
+        <v>407</v>
       </c>
     </row>
     <row r="224">
@@ -13207,10 +13207,10 @@
         <v>254</v>
       </c>
       <c r="B224" t="s" s="0">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="C224" t="s" s="0">
-        <v>391</v>
+        <v>377</v>
       </c>
     </row>
     <row r="225">
@@ -13218,18 +13218,18 @@
         <v>254</v>
       </c>
       <c r="B225" t="s" s="0">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C225" t="s" s="0">
-        <v>377</v>
+        <v>391</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s" s="0">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B226" t="s" s="0">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="C226" t="s" s="0">
         <v>377</v>
@@ -13240,7 +13240,7 @@
         <v>257</v>
       </c>
       <c r="B227" t="s" s="0">
-        <v>260</v>
+        <v>66</v>
       </c>
       <c r="C227" t="s" s="0">
         <v>377</v>
@@ -13251,7 +13251,7 @@
         <v>257</v>
       </c>
       <c r="B228" t="s" s="0">
-        <v>63</v>
+        <v>260</v>
       </c>
       <c r="C228" t="s" s="0">
         <v>377</v>
@@ -13262,7 +13262,7 @@
         <v>257</v>
       </c>
       <c r="B229" t="s" s="0">
-        <v>259</v>
+        <v>63</v>
       </c>
       <c r="C229" t="s" s="0">
         <v>377</v>
@@ -13273,10 +13273,10 @@
         <v>257</v>
       </c>
       <c r="B230" t="s" s="0">
-        <v>7</v>
+        <v>259</v>
       </c>
       <c r="C230" t="s" s="0">
-        <v>398</v>
+        <v>377</v>
       </c>
     </row>
     <row r="231">
@@ -13284,10 +13284,10 @@
         <v>257</v>
       </c>
       <c r="B231" t="s" s="0">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="C231" t="s" s="0">
-        <v>377</v>
+        <v>398</v>
       </c>
     </row>
     <row r="232">
@@ -13295,10 +13295,10 @@
         <v>257</v>
       </c>
       <c r="B232" t="s" s="0">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="C232" t="s" s="0">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="233">
@@ -13306,10 +13306,10 @@
         <v>257</v>
       </c>
       <c r="B233" t="s" s="0">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C233" t="s" s="0">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="234">
@@ -13317,10 +13317,10 @@
         <v>257</v>
       </c>
       <c r="B234" t="s" s="0">
-        <v>258</v>
+        <v>16</v>
       </c>
       <c r="C234" t="s" s="0">
-        <v>358</v>
+        <v>377</v>
       </c>
     </row>
     <row r="235">
@@ -13328,21 +13328,21 @@
         <v>257</v>
       </c>
       <c r="B235" t="s" s="0">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C235" t="s" s="0">
-        <v>394</v>
+        <v>358</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s" s="0">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B236" t="s" s="0">
-        <v>66</v>
+        <v>261</v>
       </c>
       <c r="C236" t="s" s="0">
-        <v>377</v>
+        <v>394</v>
       </c>
     </row>
     <row r="237">
@@ -13350,7 +13350,7 @@
         <v>262</v>
       </c>
       <c r="B237" t="s" s="0">
-        <v>268</v>
+        <v>66</v>
       </c>
       <c r="C237" t="s" s="0">
         <v>377</v>
@@ -13361,7 +13361,7 @@
         <v>262</v>
       </c>
       <c r="B238" t="s" s="0">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C238" t="s" s="0">
         <v>377</v>
@@ -13372,7 +13372,7 @@
         <v>262</v>
       </c>
       <c r="B239" t="s" s="0">
-        <v>230</v>
+        <v>264</v>
       </c>
       <c r="C239" t="s" s="0">
         <v>377</v>
@@ -13383,7 +13383,7 @@
         <v>262</v>
       </c>
       <c r="B240" t="s" s="0">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="C240" t="s" s="0">
         <v>377</v>
@@ -13394,7 +13394,7 @@
         <v>262</v>
       </c>
       <c r="B241" t="s" s="0">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C241" t="s" s="0">
         <v>377</v>
@@ -13405,7 +13405,7 @@
         <v>262</v>
       </c>
       <c r="B242" t="s" s="0">
-        <v>274</v>
+        <v>240</v>
       </c>
       <c r="C242" t="s" s="0">
         <v>377</v>
@@ -13416,7 +13416,7 @@
         <v>262</v>
       </c>
       <c r="B243" t="s" s="0">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="C243" t="s" s="0">
         <v>377</v>
@@ -13427,7 +13427,7 @@
         <v>262</v>
       </c>
       <c r="B244" t="s" s="0">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C244" t="s" s="0">
         <v>377</v>
@@ -13438,7 +13438,7 @@
         <v>262</v>
       </c>
       <c r="B245" t="s" s="0">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="C245" t="s" s="0">
         <v>377</v>
@@ -13449,7 +13449,7 @@
         <v>262</v>
       </c>
       <c r="B246" t="s" s="0">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C246" t="s" s="0">
         <v>377</v>
@@ -13460,7 +13460,7 @@
         <v>262</v>
       </c>
       <c r="B247" t="s" s="0">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="C247" t="s" s="0">
         <v>377</v>
@@ -13471,7 +13471,7 @@
         <v>262</v>
       </c>
       <c r="B248" t="s" s="0">
-        <v>63</v>
+        <v>241</v>
       </c>
       <c r="C248" t="s" s="0">
         <v>377</v>
@@ -13482,7 +13482,7 @@
         <v>262</v>
       </c>
       <c r="B249" t="s" s="0">
-        <v>265</v>
+        <v>63</v>
       </c>
       <c r="C249" t="s" s="0">
         <v>377</v>
@@ -13493,7 +13493,7 @@
         <v>262</v>
       </c>
       <c r="B250" t="s" s="0">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C250" t="s" s="0">
         <v>377</v>
@@ -13504,7 +13504,7 @@
         <v>262</v>
       </c>
       <c r="B251" t="s" s="0">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="C251" t="s" s="0">
         <v>377</v>
@@ -13515,7 +13515,7 @@
         <v>262</v>
       </c>
       <c r="B252" t="s" s="0">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C252" t="s" s="0">
         <v>377</v>
@@ -13526,7 +13526,7 @@
         <v>262</v>
       </c>
       <c r="B253" t="s" s="0">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C253" t="s" s="0">
         <v>377</v>
@@ -13537,7 +13537,7 @@
         <v>262</v>
       </c>
       <c r="B254" t="s" s="0">
-        <v>269</v>
+        <v>233</v>
       </c>
       <c r="C254" t="s" s="0">
         <v>377</v>
@@ -13548,7 +13548,7 @@
         <v>262</v>
       </c>
       <c r="B255" t="s" s="0">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C255" t="s" s="0">
         <v>377</v>
@@ -13559,7 +13559,7 @@
         <v>262</v>
       </c>
       <c r="B256" t="s" s="0">
-        <v>225</v>
+        <v>267</v>
       </c>
       <c r="C256" t="s" s="0">
         <v>377</v>
@@ -13570,7 +13570,7 @@
         <v>262</v>
       </c>
       <c r="B257" t="s" s="0">
-        <v>275</v>
+        <v>225</v>
       </c>
       <c r="C257" t="s" s="0">
         <v>377</v>
@@ -13581,7 +13581,7 @@
         <v>262</v>
       </c>
       <c r="B258" t="s" s="0">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="C258" t="s" s="0">
         <v>377</v>
@@ -13592,7 +13592,7 @@
         <v>262</v>
       </c>
       <c r="B259" t="s" s="0">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="C259" t="s" s="0">
         <v>377</v>
@@ -13603,10 +13603,10 @@
         <v>262</v>
       </c>
       <c r="B260" t="s" s="0">
-        <v>7</v>
+        <v>248</v>
       </c>
       <c r="C260" t="s" s="0">
-        <v>408</v>
+        <v>377</v>
       </c>
     </row>
     <row r="261">
@@ -13614,10 +13614,10 @@
         <v>262</v>
       </c>
       <c r="B261" t="s" s="0">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="C261" t="s" s="0">
-        <v>377</v>
+        <v>408</v>
       </c>
     </row>
     <row r="262">
@@ -13625,10 +13625,10 @@
         <v>262</v>
       </c>
       <c r="B262" t="s" s="0">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="C262" t="s" s="0">
-        <v>409</v>
+        <v>377</v>
       </c>
     </row>
     <row r="263">
@@ -13636,10 +13636,10 @@
         <v>262</v>
       </c>
       <c r="B263" t="s" s="0">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C263" t="s" s="0">
-        <v>377</v>
+        <v>409</v>
       </c>
     </row>
     <row r="264">
@@ -13647,10 +13647,10 @@
         <v>262</v>
       </c>
       <c r="B264" t="s" s="0">
-        <v>266</v>
+        <v>16</v>
       </c>
       <c r="C264" t="s" s="0">
-        <v>410</v>
+        <v>377</v>
       </c>
     </row>
     <row r="265">
@@ -13658,20 +13658,31 @@
         <v>262</v>
       </c>
       <c r="B265" t="s" s="0">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C265" t="s" s="0">
-        <v>358</v>
+        <v>410</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s" s="0">
+        <v>262</v>
+      </c>
+      <c r="B266" t="s" s="0">
+        <v>271</v>
+      </c>
+      <c r="C266" t="s" s="0">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s" s="0">
         <v>276</v>
       </c>
-      <c r="B266" t="s" s="0">
+      <c r="B267" t="s" s="0">
         <v>277</v>
       </c>
-      <c r="C266" t="s" s="0">
+      <c r="C267" t="s" s="0">
         <v>357</v>
       </c>
     </row>
@@ -13950,7 +13961,7 @@
         <v>15</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -13975,10 +13986,10 @@
         <v>292</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
@@ -13992,7 +14003,7 @@
         <v>15</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
@@ -14017,10 +14028,10 @@
         <v>295</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>33</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -14034,7 +14045,7 @@
         <v>15</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>297</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -14042,13 +14053,13 @@
         <v>41</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>17</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10">
@@ -14062,7 +14073,7 @@
         <v>15</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
@@ -14090,7 +14101,7 @@
         <v>15</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>62</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
@@ -14104,7 +14115,7 @@
         <v>15</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>33</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14">
@@ -14118,7 +14129,7 @@
         <v>15</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15">
@@ -14132,7 +14143,7 @@
         <v>15</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16">
@@ -14188,7 +14199,7 @@
         <v>15</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>17</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20">
@@ -14202,7 +14213,7 @@
         <v>15</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21">
@@ -14210,7 +14221,7 @@
         <v>88</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>15</v>
@@ -14224,13 +14235,13 @@
         <v>87</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23">
@@ -14238,13 +14249,13 @@
         <v>87</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24">
@@ -14252,13 +14263,13 @@
         <v>87</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25">
@@ -14266,13 +14277,13 @@
         <v>87</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -14280,13 +14291,13 @@
         <v>130</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27">
@@ -14294,13 +14305,13 @@
         <v>130</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28">
@@ -14308,13 +14319,13 @@
         <v>130</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>50</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29">
@@ -14322,13 +14333,13 @@
         <v>130</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30">
@@ -14350,13 +14361,13 @@
         <v>145</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32">
@@ -14384,7 +14395,7 @@
         <v>15</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34">
@@ -14392,7 +14403,7 @@
         <v>148</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>15</v>
@@ -14476,13 +14487,13 @@
         <v>161</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41">
@@ -14490,13 +14501,13 @@
         <v>161</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42">
@@ -14524,7 +14535,7 @@
         <v>15</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>22</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44">
@@ -14538,7 +14549,7 @@
         <v>15</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>79</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45">
@@ -14546,7 +14557,7 @@
         <v>171</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>15</v>
@@ -14560,13 +14571,13 @@
         <v>183</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>33</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47">
@@ -14574,7 +14585,7 @@
         <v>183</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>15</v>
@@ -14602,13 +14613,13 @@
         <v>183</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>325</v>
+        <v>290</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>79</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50">
@@ -14630,13 +14641,13 @@
         <v>202</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>152</v>
+        <v>316</v>
       </c>
     </row>
     <row r="52">
@@ -14644,13 +14655,13 @@
         <v>202</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>316</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53">
@@ -14672,13 +14683,13 @@
         <v>202</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>276</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55">
@@ -14686,13 +14697,13 @@
         <v>202</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>102</v>
+        <v>152</v>
       </c>
     </row>
     <row r="56">
@@ -14700,13 +14711,13 @@
         <v>202</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57">
@@ -14720,7 +14731,7 @@
         <v>15</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>85</v>
+        <v>276</v>
       </c>
     </row>
     <row r="58">
@@ -14756,7 +14767,7 @@
         <v>55</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>332</v>
+        <v>301</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>15</v>
@@ -14770,13 +14781,13 @@
         <v>55</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62">
@@ -14784,7 +14795,7 @@
         <v>55</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>15</v>
@@ -14798,7 +14809,7 @@
         <v>55</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>15</v>
@@ -14812,7 +14823,7 @@
         <v>55</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>15</v>
@@ -14826,13 +14837,13 @@
         <v>55</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>304</v>
+        <v>336</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>50</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66">
@@ -14840,7 +14851,7 @@
         <v>55</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>303</v>
+        <v>337</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>15</v>
@@ -14854,13 +14865,13 @@
         <v>55</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68">
@@ -14868,7 +14879,7 @@
         <v>55</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>15</v>
@@ -14882,13 +14893,13 @@
         <v>55</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70">
@@ -14896,7 +14907,7 @@
         <v>55</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>15</v>
@@ -14910,7 +14921,7 @@
         <v>55</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>15</v>
@@ -14924,13 +14935,13 @@
         <v>55</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73">
@@ -14938,13 +14949,13 @@
         <v>55</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D73" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
     <row r="74">
@@ -14952,7 +14963,7 @@
         <v>249</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C74" t="s" s="0">
         <v>15</v>
@@ -14966,13 +14977,13 @@
         <v>254</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>308</v>
+        <v>344</v>
       </c>
       <c r="C75" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>79</v>
+        <v>62</v>
       </c>
     </row>
     <row r="76">
@@ -14980,7 +14991,7 @@
         <v>254</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C76" t="s" s="0">
         <v>15</v>
@@ -14994,13 +15005,13 @@
         <v>254</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>345</v>
+        <v>308</v>
       </c>
       <c r="C77" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D77" t="s" s="0">
-        <v>62</v>
+        <v>79</v>
       </c>
     </row>
     <row r="78">
@@ -15008,13 +15019,13 @@
         <v>257</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>304</v>
+        <v>346</v>
       </c>
       <c r="C78" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D78" t="s" s="0">
-        <v>50</v>
+        <v>217</v>
       </c>
     </row>
     <row r="79">
@@ -15022,13 +15033,13 @@
         <v>257</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>346</v>
+        <v>303</v>
       </c>
       <c r="C79" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D79" t="s" s="0">
-        <v>217</v>
+        <v>50</v>
       </c>
     </row>
     <row r="80">
@@ -15036,13 +15047,13 @@
         <v>262</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>304</v>
+        <v>347</v>
       </c>
       <c r="C80" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D80" t="s" s="0">
-        <v>50</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81">
@@ -15050,7 +15061,7 @@
         <v>262</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C81" t="s" s="0">
         <v>15</v>
@@ -15064,7 +15075,7 @@
         <v>262</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="C82" t="s" s="0">
         <v>15</v>
@@ -15078,13 +15089,13 @@
         <v>262</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D83" t="s" s="0">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84">
@@ -15092,7 +15103,7 @@
         <v>262</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>15</v>
@@ -15106,7 +15117,7 @@
         <v>262</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>15</v>
@@ -15134,7 +15145,7 @@
         <v>262</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="C87" t="s" s="0">
         <v>15</v>
@@ -15148,13 +15159,13 @@
         <v>262</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>349</v>
+        <v>303</v>
       </c>
       <c r="C88" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D88" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
     <row r="89">
@@ -15162,7 +15173,7 @@
         <v>262</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="C89" t="s" s="0">
         <v>15</v>
@@ -15176,13 +15187,13 @@
         <v>262</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="C90" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D90" t="s" s="0">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91">
@@ -15190,7 +15201,7 @@
         <v>262</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>15</v>
@@ -19627,7 +19638,7 @@
         <v>254</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>357</v>
@@ -19644,7 +19655,7 @@
         <v>254</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>357</v>
@@ -19661,7 +19672,7 @@
         <v>254</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>357</v>
@@ -19678,7 +19689,7 @@
         <v>254</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E6" t="s" s="0">
         <v>357</v>
@@ -19712,7 +19723,7 @@
         <v>254</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E8" t="s" s="0">
         <v>357</v>
@@ -19780,7 +19791,7 @@
         <v>254</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E12" t="s" s="0">
         <v>357</v>
@@ -19814,7 +19825,7 @@
         <v>254</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E14" t="s" s="0">
         <v>357</v>
@@ -19848,7 +19859,7 @@
         <v>254</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E16" t="s" s="0">
         <v>357</v>
